--- a/in2010402/in2010402.xlsx
+++ b/in2010402/in2010402.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>zwxy</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>20*34*39</t>
+  </si>
+  <si>
+    <t>еще не сделал</t>
+  </si>
+  <si>
+    <t>Зелёным - то, что  было правильным</t>
+  </si>
+  <si>
+    <t>белое - то, что я исправил или добавил новым</t>
   </si>
 </sst>
 </file>
@@ -407,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,82 +426,88 @@
     <col min="2" max="2" width="101.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1011010</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>898</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4680</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>161</v>
       </c>
@@ -521,6 +536,9 @@
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -549,10 +567,16 @@
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">

--- a/in2010402/in2010402.xlsx
+++ b/in2010402/in2010402.xlsx
@@ -14,36 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>zwxy</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>45212176*45265984*47458321*48469444</t>
   </si>
   <si>
-    <t>12*50653</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>если окажется верным, то в тексте задания ошибка, если неверным, то, вероятно, в ответах ошибка (про 23)</t>
-  </si>
-  <si>
     <t>20*34*39</t>
   </si>
   <si>
-    <t>еще не сделал</t>
-  </si>
-  <si>
-    <t>Зелёным - то, что  было правильным</t>
-  </si>
-  <si>
-    <t>белое - то, что я исправил или добавил новым</t>
+    <t>Решили, что ошибка в ответах</t>
+  </si>
+  <si>
+    <t>15587*50001</t>
+  </si>
+  <si>
+    <t>еще не проверен</t>
+  </si>
+  <si>
+    <t>14*679730035</t>
+  </si>
+  <si>
+    <t>не помню, проверяли ли</t>
+  </si>
+  <si>
+    <t>327*19581</t>
   </si>
 </sst>
 </file>
@@ -67,17 +67,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -94,24 +89,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Акцент2" xfId="1" builtinId="33"/>
-    <cellStyle name="Акцент3" xfId="2" builtinId="37"/>
+  <cellStyles count="2">
+    <cellStyle name="Акцент3" xfId="1" builtinId="37"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,22 +409,19 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="101.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -441,10 +430,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,12 +462,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>898</v>
+      <c r="A9" s="2">
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -498,27 +487,27 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4680</v>
+      <c r="A15" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
+      <c r="A17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>842</v>
       </c>
     </row>
@@ -528,16 +517,16 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,37 +535,31 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
+      <c r="A23" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
+      <c r="A24" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
+      <c r="A27" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
